--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efnb3-Ephb6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efnb3-Ephb6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Efnb3</t>
+  </si>
+  <si>
+    <t>Ephb6</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Efnb3</t>
-  </si>
-  <si>
-    <t>Ephb6</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -537,16 +537,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.4197443333333333</v>
+        <v>0.5905326666666667</v>
       </c>
       <c r="H2">
-        <v>1.259233</v>
+        <v>1.771598</v>
       </c>
       <c r="I2">
-        <v>0.2116780627795936</v>
+        <v>0.504014252159901</v>
       </c>
       <c r="J2">
-        <v>0.2116780627795937</v>
+        <v>0.5040142521599009</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.239262</v>
+        <v>0.168144</v>
       </c>
       <c r="N2">
-        <v>0.717786</v>
+        <v>0.504432</v>
       </c>
       <c r="O2">
-        <v>0.08715472402266847</v>
+        <v>0.05446245276675245</v>
       </c>
       <c r="P2">
-        <v>0.08715472402266845</v>
+        <v>0.05446245276675245</v>
       </c>
       <c r="Q2">
-        <v>0.100428868682</v>
+        <v>0.09929452470400001</v>
       </c>
       <c r="R2">
-        <v>0.9038598181380001</v>
+        <v>0.893650722336</v>
       </c>
       <c r="S2">
-        <v>0.01844874314320857</v>
+        <v>0.02744985240202867</v>
       </c>
       <c r="T2">
-        <v>0.01844874314320857</v>
+        <v>0.02744985240202866</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +584,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.4197443333333333</v>
+        <v>0.5905326666666667</v>
       </c>
       <c r="H3">
-        <v>1.259233</v>
+        <v>1.771598</v>
       </c>
       <c r="I3">
-        <v>0.2116780627795936</v>
+        <v>0.504014252159901</v>
       </c>
       <c r="J3">
-        <v>0.2116780627795937</v>
+        <v>0.5040142521599009</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>3.839785</v>
       </c>
       <c r="O3">
-        <v>0.4662328353874024</v>
+        <v>0.4145734394268892</v>
       </c>
       <c r="P3">
-        <v>0.4662328353874023</v>
+        <v>0.4145734394268892</v>
       </c>
       <c r="Q3">
-        <v>0.5372426649894444</v>
+        <v>0.7558394918255557</v>
       </c>
       <c r="R3">
-        <v>4.835183984905</v>
+        <v>6.80255542643</v>
       </c>
       <c r="S3">
-        <v>0.09869126339904249</v>
+        <v>0.2089509220381016</v>
       </c>
       <c r="T3">
-        <v>0.09869126339904251</v>
+        <v>0.2089509220381015</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -661,16 +661,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.4197443333333333</v>
+        <v>0.5905326666666667</v>
       </c>
       <c r="H4">
-        <v>1.259233</v>
+        <v>1.771598</v>
       </c>
       <c r="I4">
-        <v>0.2116780627795936</v>
+        <v>0.504014252159901</v>
       </c>
       <c r="J4">
-        <v>0.2116780627795937</v>
+        <v>0.5040142521599009</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,90 +679,90 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.217387</v>
+        <v>1.639265666666667</v>
       </c>
       <c r="N4">
-        <v>3.652161</v>
+        <v>4.917797</v>
       </c>
       <c r="O4">
-        <v>0.4434512292540573</v>
+        <v>0.5309641078063584</v>
       </c>
       <c r="P4">
-        <v>0.4434512292540573</v>
+        <v>0.5309641078063583</v>
       </c>
       <c r="Q4">
-        <v>0.5109912947236666</v>
+        <v>0.9680399255117779</v>
       </c>
       <c r="R4">
-        <v>4.598921652513</v>
+        <v>8.712359329606</v>
       </c>
       <c r="S4">
-        <v>0.09386889714572831</v>
+        <v>0.2676134777197708</v>
       </c>
       <c r="T4">
-        <v>0.09386889714572834</v>
+        <v>0.2676134777197707</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.55299</v>
+      </c>
+      <c r="H5">
+        <v>1.65897</v>
+      </c>
+      <c r="I5">
+        <v>0.4719719281155831</v>
+      </c>
+      <c r="J5">
+        <v>0.4719719281155832</v>
+      </c>
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="F5">
+      <c r="L5">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G5">
-        <v>0.4197443333333333</v>
-      </c>
-      <c r="H5">
-        <v>1.259233</v>
-      </c>
-      <c r="I5">
-        <v>0.2116780627795936</v>
-      </c>
-      <c r="J5">
-        <v>0.2116780627795937</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M5">
-        <v>0.008678333333333335</v>
+        <v>0.168144</v>
       </c>
       <c r="N5">
-        <v>0.026035</v>
+        <v>0.504432</v>
       </c>
       <c r="O5">
-        <v>0.003161211335871936</v>
+        <v>0.05446245276675245</v>
       </c>
       <c r="P5">
-        <v>0.003161211335871936</v>
+        <v>0.05446245276675245</v>
       </c>
       <c r="Q5">
-        <v>0.003642681239444445</v>
+        <v>0.09298195055999998</v>
       </c>
       <c r="R5">
-        <v>0.03278413115500001</v>
+        <v>0.83683755504</v>
       </c>
       <c r="S5">
-        <v>0.0006691590916142627</v>
+        <v>0.02570474884222803</v>
       </c>
       <c r="T5">
-        <v>0.0006691590916142628</v>
+        <v>0.02570474884222803</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.5905326666666667</v>
+        <v>0.55299</v>
       </c>
       <c r="H6">
-        <v>1.771598</v>
+        <v>1.65897</v>
       </c>
       <c r="I6">
-        <v>0.297807024326874</v>
+        <v>0.4719719281155831</v>
       </c>
       <c r="J6">
-        <v>0.2978070243268741</v>
+        <v>0.4719719281155832</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.239262</v>
+        <v>1.279928333333333</v>
       </c>
       <c r="N6">
-        <v>0.717786</v>
+        <v>3.839785</v>
       </c>
       <c r="O6">
-        <v>0.08715472402266847</v>
+        <v>0.4145734394268892</v>
       </c>
       <c r="P6">
-        <v>0.08715472402266845</v>
+        <v>0.4145734394268892</v>
       </c>
       <c r="Q6">
-        <v>0.141292026892</v>
+        <v>0.70778756905</v>
       </c>
       <c r="R6">
-        <v>1.271628242028</v>
+        <v>6.37008812145</v>
       </c>
       <c r="S6">
-        <v>0.02595528901722082</v>
+        <v>0.1956670255518178</v>
       </c>
       <c r="T6">
-        <v>0.02595528901722082</v>
+        <v>0.1956670255518178</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,31 +832,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.5905326666666667</v>
+        <v>0.55299</v>
       </c>
       <c r="H7">
-        <v>1.771598</v>
+        <v>1.65897</v>
       </c>
       <c r="I7">
-        <v>0.297807024326874</v>
+        <v>0.4719719281155831</v>
       </c>
       <c r="J7">
-        <v>0.2978070243268741</v>
+        <v>0.4719719281155832</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,152 +865,152 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.279928333333333</v>
+        <v>1.639265666666667</v>
       </c>
       <c r="N7">
-        <v>3.839785</v>
+        <v>4.917797</v>
       </c>
       <c r="O7">
-        <v>0.4662328353874024</v>
+        <v>0.5309641078063584</v>
       </c>
       <c r="P7">
-        <v>0.4662328353874023</v>
+        <v>0.5309641078063583</v>
       </c>
       <c r="Q7">
-        <v>0.7558394918255557</v>
+        <v>0.90649752101</v>
       </c>
       <c r="R7">
-        <v>6.80255542643</v>
+        <v>8.158477689090001</v>
       </c>
       <c r="S7">
-        <v>0.1388474133502036</v>
+        <v>0.2506001537215373</v>
       </c>
       <c r="T7">
-        <v>0.1388474133502036</v>
+        <v>0.2506001537215373</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>25</v>
       </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
       <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.028136</v>
+      </c>
+      <c r="H8">
+        <v>0.084408</v>
+      </c>
+      <c r="I8">
+        <v>0.0240138197245159</v>
+      </c>
+      <c r="J8">
+        <v>0.0240138197245159</v>
+      </c>
+      <c r="K8">
         <v>2</v>
       </c>
-      <c r="F8">
+      <c r="L8">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G8">
-        <v>0.5905326666666667</v>
-      </c>
-      <c r="H8">
-        <v>1.771598</v>
-      </c>
-      <c r="I8">
-        <v>0.297807024326874</v>
-      </c>
-      <c r="J8">
-        <v>0.2978070243268741</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
       <c r="M8">
-        <v>1.217387</v>
+        <v>0.168144</v>
       </c>
       <c r="N8">
-        <v>3.652161</v>
+        <v>0.504432</v>
       </c>
       <c r="O8">
-        <v>0.4434512292540573</v>
+        <v>0.05446245276675245</v>
       </c>
       <c r="P8">
-        <v>0.4434512292540573</v>
+        <v>0.05446245276675245</v>
       </c>
       <c r="Q8">
-        <v>0.7189067914753332</v>
+        <v>0.004730899584</v>
       </c>
       <c r="R8">
-        <v>6.470161123277999</v>
+        <v>0.04257809625599999</v>
       </c>
       <c r="S8">
-        <v>0.1320628910182452</v>
+        <v>0.001307851522495755</v>
       </c>
       <c r="T8">
-        <v>0.1320628910182453</v>
+        <v>0.001307851522495756</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.5905326666666667</v>
+        <v>0.028136</v>
       </c>
       <c r="H9">
-        <v>1.771598</v>
+        <v>0.084408</v>
       </c>
       <c r="I9">
-        <v>0.297807024326874</v>
+        <v>0.0240138197245159</v>
       </c>
       <c r="J9">
-        <v>0.2978070243268741</v>
+        <v>0.0240138197245159</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.008678333333333335</v>
+        <v>1.279928333333333</v>
       </c>
       <c r="N9">
-        <v>0.026035</v>
+        <v>3.839785</v>
       </c>
       <c r="O9">
-        <v>0.003161211335871936</v>
+        <v>0.4145734394268892</v>
       </c>
       <c r="P9">
-        <v>0.003161211335871936</v>
+        <v>0.4145734394268892</v>
       </c>
       <c r="Q9">
-        <v>0.005124839325555556</v>
+        <v>0.03601206358666666</v>
       </c>
       <c r="R9">
-        <v>0.04612355393000001</v>
+        <v>0.32410857228</v>
       </c>
       <c r="S9">
-        <v>0.0009414309412044036</v>
+        <v>0.009955491836969829</v>
       </c>
       <c r="T9">
-        <v>0.0009414309412044036</v>
+        <v>0.009955491836969829</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,495 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.8168243333333334</v>
+        <v>0.028136</v>
       </c>
       <c r="H10">
-        <v>2.450473</v>
+        <v>0.084408</v>
       </c>
       <c r="I10">
-        <v>0.411926448507702</v>
+        <v>0.0240138197245159</v>
       </c>
       <c r="J10">
-        <v>0.4119264485077021</v>
+        <v>0.0240138197245159</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.239262</v>
+        <v>1.639265666666667</v>
       </c>
       <c r="N10">
-        <v>0.717786</v>
+        <v>4.917797</v>
       </c>
       <c r="O10">
-        <v>0.08715472402266847</v>
+        <v>0.5309641078063584</v>
       </c>
       <c r="P10">
-        <v>0.08715472402266845</v>
+        <v>0.5309641078063583</v>
       </c>
       <c r="Q10">
-        <v>0.195435023642</v>
+        <v>0.04612237879733333</v>
       </c>
       <c r="R10">
-        <v>1.758915212778</v>
+        <v>0.415101409176</v>
       </c>
       <c r="S10">
-        <v>0.03590133593732672</v>
+        <v>0.01275047636505031</v>
       </c>
       <c r="T10">
-        <v>0.03590133593732672</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G11">
-        <v>0.8168243333333334</v>
-      </c>
-      <c r="H11">
-        <v>2.450473</v>
-      </c>
-      <c r="I11">
-        <v>0.411926448507702</v>
-      </c>
-      <c r="J11">
-        <v>0.4119264485077021</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1.279928333333333</v>
-      </c>
-      <c r="N11">
-        <v>3.839785</v>
-      </c>
-      <c r="O11">
-        <v>0.4662328353874024</v>
-      </c>
-      <c r="P11">
-        <v>0.4662328353874023</v>
-      </c>
-      <c r="Q11">
-        <v>1.045476607589445</v>
-      </c>
-      <c r="R11">
-        <v>9.409289468305001</v>
-      </c>
-      <c r="S11">
-        <v>0.1920536360588087</v>
-      </c>
-      <c r="T11">
-        <v>0.1920536360588087</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G12">
-        <v>0.8168243333333334</v>
-      </c>
-      <c r="H12">
-        <v>2.450473</v>
-      </c>
-      <c r="I12">
-        <v>0.411926448507702</v>
-      </c>
-      <c r="J12">
-        <v>0.4119264485077021</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>1.217387</v>
-      </c>
-      <c r="N12">
-        <v>3.652161</v>
-      </c>
-      <c r="O12">
-        <v>0.4434512292540573</v>
-      </c>
-      <c r="P12">
-        <v>0.4434512292540573</v>
-      </c>
-      <c r="Q12">
-        <v>0.9943913246836665</v>
-      </c>
-      <c r="R12">
-        <v>8.949521922153</v>
-      </c>
-      <c r="S12">
-        <v>0.1826692899529986</v>
-      </c>
-      <c r="T12">
-        <v>0.1826692899529986</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G13">
-        <v>0.8168243333333334</v>
-      </c>
-      <c r="H13">
-        <v>2.450473</v>
-      </c>
-      <c r="I13">
-        <v>0.411926448507702</v>
-      </c>
-      <c r="J13">
-        <v>0.4119264485077021</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.008678333333333335</v>
-      </c>
-      <c r="N13">
-        <v>0.026035</v>
-      </c>
-      <c r="O13">
-        <v>0.003161211335871936</v>
-      </c>
-      <c r="P13">
-        <v>0.003161211335871936</v>
-      </c>
-      <c r="Q13">
-        <v>0.007088673839444446</v>
-      </c>
-      <c r="R13">
-        <v>0.06379806455500001</v>
-      </c>
-      <c r="S13">
-        <v>0.001302186558568015</v>
-      </c>
-      <c r="T13">
-        <v>0.001302186558568015</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.155836</v>
-      </c>
-      <c r="H14">
-        <v>0.467508</v>
-      </c>
-      <c r="I14">
-        <v>0.07858846438583031</v>
-      </c>
-      <c r="J14">
-        <v>0.07858846438583032</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M14">
-        <v>0.239262</v>
-      </c>
-      <c r="N14">
-        <v>0.717786</v>
-      </c>
-      <c r="O14">
-        <v>0.08715472402266847</v>
-      </c>
-      <c r="P14">
-        <v>0.08715472402266845</v>
-      </c>
-      <c r="Q14">
-        <v>0.037285633032</v>
-      </c>
-      <c r="R14">
-        <v>0.335570697288</v>
-      </c>
-      <c r="S14">
-        <v>0.00684935592491235</v>
-      </c>
-      <c r="T14">
-        <v>0.00684935592491235</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.155836</v>
-      </c>
-      <c r="H15">
-        <v>0.467508</v>
-      </c>
-      <c r="I15">
-        <v>0.07858846438583031</v>
-      </c>
-      <c r="J15">
-        <v>0.07858846438583032</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>1.279928333333333</v>
-      </c>
-      <c r="N15">
-        <v>3.839785</v>
-      </c>
-      <c r="O15">
-        <v>0.4662328353874024</v>
-      </c>
-      <c r="P15">
-        <v>0.4662328353874023</v>
-      </c>
-      <c r="Q15">
-        <v>0.1994589117533333</v>
-      </c>
-      <c r="R15">
-        <v>1.79513020578</v>
-      </c>
-      <c r="S15">
-        <v>0.03664052257934756</v>
-      </c>
-      <c r="T15">
-        <v>0.03664052257934756</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.155836</v>
-      </c>
-      <c r="H16">
-        <v>0.467508</v>
-      </c>
-      <c r="I16">
-        <v>0.07858846438583031</v>
-      </c>
-      <c r="J16">
-        <v>0.07858846438583032</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>1.217387</v>
-      </c>
-      <c r="N16">
-        <v>3.652161</v>
-      </c>
-      <c r="O16">
-        <v>0.4434512292540573</v>
-      </c>
-      <c r="P16">
-        <v>0.4434512292540573</v>
-      </c>
-      <c r="Q16">
-        <v>0.189712720532</v>
-      </c>
-      <c r="R16">
-        <v>1.707414484788</v>
-      </c>
-      <c r="S16">
-        <v>0.03485015113708516</v>
-      </c>
-      <c r="T16">
-        <v>0.03485015113708517</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.155836</v>
-      </c>
-      <c r="H17">
-        <v>0.467508</v>
-      </c>
-      <c r="I17">
-        <v>0.07858846438583031</v>
-      </c>
-      <c r="J17">
-        <v>0.07858846438583032</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M17">
-        <v>0.008678333333333335</v>
-      </c>
-      <c r="N17">
-        <v>0.026035</v>
-      </c>
-      <c r="O17">
-        <v>0.003161211335871936</v>
-      </c>
-      <c r="P17">
-        <v>0.003161211335871936</v>
-      </c>
-      <c r="Q17">
-        <v>0.001352396753333333</v>
-      </c>
-      <c r="R17">
-        <v>0.01217157078</v>
-      </c>
-      <c r="S17">
-        <v>0.0002484347444852547</v>
-      </c>
-      <c r="T17">
-        <v>0.0002484347444852547</v>
+        <v>0.01275047636505031</v>
       </c>
     </row>
   </sheetData>
